--- a/data/trans_dic/P36$cafe-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8330297497012701</v>
+        <v>0.8329587274213628</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8604571952536059</v>
+        <v>0.860650103570635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8045341352022409</v>
+        <v>0.8037275826622819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.783486318428244</v>
+        <v>0.7866803200476635</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8430293553374182</v>
+        <v>0.8429977429143802</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8708540734116428</v>
+        <v>0.8703440371347128</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8287796372127075</v>
+        <v>0.8224830134763291</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8669576724592205</v>
+        <v>0.8665827160358616</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8496203155648056</v>
+        <v>0.8461380085645047</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9141488348408106</v>
+        <v>0.9128372293646557</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9330762727016861</v>
+        <v>0.9320555277525048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.894160075153355</v>
+        <v>0.8917565369160743</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8795212960129943</v>
+        <v>0.8804839200225777</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9237241977435077</v>
+        <v>0.9222000977551006</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9365364080409571</v>
+        <v>0.9391054307066258</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.888364946785833</v>
+        <v>0.8866873520979496</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9196300664272997</v>
+        <v>0.9195199032514521</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9052708317462053</v>
+        <v>0.900732032150498</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8357249964855423</v>
+        <v>0.8342033537575954</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8490560684734103</v>
+        <v>0.8467336231036714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8630416006305014</v>
+        <v>0.8667193103867114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8550076688565007</v>
+        <v>0.8531957813861504</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.892343350584109</v>
+        <v>0.8924211161008379</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8933561497123415</v>
+        <v>0.8922379922014091</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8559196479487289</v>
+        <v>0.854241780333689</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8783546572297771</v>
+        <v>0.8803258529803528</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.887347915016886</v>
+        <v>0.8883820530649384</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.896624999417825</v>
+        <v>0.8955289570498</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9046095538249679</v>
+        <v>0.904520228713506</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9180596697142008</v>
+        <v>0.9221851569374632</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9102452140616247</v>
+        <v>0.9109602923212143</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9418801590499133</v>
+        <v>0.9411679285486476</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9412996885701657</v>
+        <v>0.9409056859577667</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8959495151251488</v>
+        <v>0.8960265226190781</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9166553274876856</v>
+        <v>0.9178092626512501</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9236224962492863</v>
+        <v>0.9246161638730945</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9360326308250347</v>
+        <v>0.9359688681239892</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9161538101794788</v>
+        <v>0.9139365223911536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9025766635344626</v>
+        <v>0.9023718978194739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9416248482118158</v>
+        <v>0.9413820147670248</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8855287186111227</v>
+        <v>0.8857167807693215</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9180893874438936</v>
+        <v>0.9173697600155791</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9476642512675482</v>
+        <v>0.9464233385228543</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9090932367746754</v>
+        <v>0.9105787974656359</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9228439817776154</v>
+        <v>0.9220180346003133</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.982066361376924</v>
+        <v>0.9817847060461696</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9686963841706342</v>
+        <v>0.9692464501482986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9568769367333986</v>
+        <v>0.9602991243917028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.982114402788011</v>
+        <v>0.981995516351877</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9455044093405979</v>
+        <v>0.9477179103817328</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9696561306437862</v>
+        <v>0.9681129974370496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9778025670654602</v>
+        <v>0.9770911787854937</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9522185777742884</v>
+        <v>0.9516839643356819</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9600876960103305</v>
+        <v>0.9574851933641447</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8577232973031284</v>
+        <v>0.8614375672798947</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8715305259265411</v>
+        <v>0.873947139859361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8651484107471235</v>
+        <v>0.8659903449237353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8980510113009924</v>
+        <v>0.8965539866775927</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9526219348137223</v>
+        <v>0.9518621439688916</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9112942049085448</v>
+        <v>0.9143731026385565</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8903224006617717</v>
+        <v>0.8899063500334932</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9199849751604594</v>
+        <v>0.9212949498539522</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8994905018886665</v>
+        <v>0.9021233535110464</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.926147804436612</v>
+        <v>0.9266488435699811</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9408726586005047</v>
+        <v>0.9378360504509131</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9311942764496077</v>
+        <v>0.9309295765322262</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9494918746544723</v>
+        <v>0.9489363004385081</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9866968190752623</v>
+        <v>0.987081772432685</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9637662589556832</v>
+        <v>0.9621059961484292</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.932082593090692</v>
+        <v>0.9322442316426079</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9580556033443877</v>
+        <v>0.9584533128342761</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9412051327381634</v>
+        <v>0.9402084277346782</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8946372843997924</v>
+        <v>0.9014380233756241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8859209503716685</v>
+        <v>0.8840907519764152</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8611070964817953</v>
+        <v>0.8556168881146859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9412068119592191</v>
+        <v>0.93656524485347</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9075793035311444</v>
+        <v>0.9096079445107574</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.874506226535624</v>
+        <v>0.8794346724647807</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9311672047415548</v>
+        <v>0.9323161154845232</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9121961315312659</v>
+        <v>0.9142431144707881</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8811465387871463</v>
+        <v>0.8793567207970747</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9618078493884469</v>
+        <v>0.9654948066898886</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9643140117530327</v>
+        <v>0.9649028158592369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9405326115230468</v>
+        <v>0.9353850013542063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9892013566601466</v>
+        <v>0.9897693103201951</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9731719824775248</v>
+        <v>0.9725311685576817</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9509750502058927</v>
+        <v>0.9505774067506918</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9707284420142164</v>
+        <v>0.9721715125858963</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9623183486092303</v>
+        <v>0.9622414830511015</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9325674539294646</v>
+        <v>0.9356264398561255</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9237166097473287</v>
+        <v>0.9197604611806605</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8589958850100831</v>
+        <v>0.8631172780266765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8104634101696514</v>
+        <v>0.8107062829283376</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8992178774441748</v>
+        <v>0.9009846010041856</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9160252650998597</v>
+        <v>0.9208697927362511</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8755645523712464</v>
+        <v>0.8837813377178579</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9213026736187878</v>
+        <v>0.922993615144601</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9046316432155481</v>
+        <v>0.9058287390164508</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8584915994417991</v>
+        <v>0.8592860923723475</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9747376129429917</v>
+        <v>0.97406693213762</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9396756840653477</v>
+        <v>0.9404005487353466</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8963357505817222</v>
+        <v>0.8940240626550294</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9577712479768743</v>
+        <v>0.9606753512059413</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.972244373807515</v>
+        <v>0.9726799595609971</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9460406532437424</v>
+        <v>0.9469187758334633</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9597616780829068</v>
+        <v>0.9599326009299031</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9490318323018232</v>
+        <v>0.9485083683219072</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9122204661925051</v>
+        <v>0.9152108812079004</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9140260821075817</v>
+        <v>0.9125230890932603</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8760809912097998</v>
+        <v>0.8783721189267961</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9077487085321592</v>
+        <v>0.9083424836984975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9147353932074002</v>
+        <v>0.9158472222249457</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9056901076684408</v>
+        <v>0.9046912882404651</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9412184388390242</v>
+        <v>0.9405945505935129</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.920866253428081</v>
+        <v>0.9205063332049749</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8993796385048403</v>
+        <v>0.8998680120624193</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9309663255565529</v>
+        <v>0.9291643964350438</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.95431247517258</v>
+        <v>0.9555738825338516</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9262437694372928</v>
+        <v>0.9280053295761171</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9493597453774122</v>
+        <v>0.9488788528373239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9538665159090298</v>
+        <v>0.9562739178887129</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.947080755918285</v>
+        <v>0.9467404907003087</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9725044648773142</v>
+        <v>0.9719567882773313</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9503831664526813</v>
+        <v>0.9498648674747622</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9318912488946848</v>
+        <v>0.9325992306709406</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9560494470109587</v>
+        <v>0.9565363588870357</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8889019914398197</v>
+        <v>0.886929731949951</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9184034772126558</v>
+        <v>0.9172439743590648</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9091430403477065</v>
+        <v>0.9091159517361541</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8729695491521741</v>
+        <v>0.8728254855608699</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.932594234122039</v>
+        <v>0.9347209479936434</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9236074237905892</v>
+        <v>0.9219387429265113</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.885323519611666</v>
+        <v>0.8862042250687229</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9337287744091304</v>
+        <v>0.9323794132565383</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9240836645529976</v>
+        <v>0.9209927725694688</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.928315008638414</v>
+        <v>0.9286596309581158</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9531945421768598</v>
+        <v>0.9533222414363485</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9462124986902296</v>
+        <v>0.9458414442232385</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9153143682121183</v>
+        <v>0.9169203185042037</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9651755669333089</v>
+        <v>0.965076262718238</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9567150204392623</v>
+        <v>0.9558241466624098</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9160412975623833</v>
+        <v>0.9171108412609662</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9563447902870486</v>
+        <v>0.9559400666445446</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9467470303547971</v>
+        <v>0.9465468128397803</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9039400913492965</v>
+        <v>0.9033925975262224</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9044222287737879</v>
+        <v>0.9045215588019232</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8976277382147596</v>
+        <v>0.8984589672292487</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9046145895018702</v>
+        <v>0.9059617807581557</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9271944255088562</v>
+        <v>0.9275545634939759</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9276290266736132</v>
+        <v>0.9279401441177335</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9084150822093423</v>
+        <v>0.9080046180415099</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9188687916277012</v>
+        <v>0.9191568721277816</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9160951757556688</v>
+        <v>0.9154607076337025</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9245835825988737</v>
+        <v>0.9238257157456615</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9252198365347576</v>
+        <v>0.9247059851844552</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9182133866987469</v>
+        <v>0.9182315443319365</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.924538944448177</v>
+        <v>0.9243807307982638</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9440249173374693</v>
+        <v>0.9440980710549827</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9436981978256981</v>
+        <v>0.9445295538277882</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9215827439978926</v>
+        <v>0.9225547367798649</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9319636649940612</v>
+        <v>0.9317445527314611</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9290448020441365</v>
+        <v>0.9289164912622976</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>225952</v>
+        <v>225933</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>253609</v>
+        <v>253666</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>236341</v>
+        <v>236104</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>203522</v>
+        <v>204352</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>241364</v>
+        <v>241355</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>251418</v>
+        <v>251271</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>440087</v>
+        <v>436743</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>503741</v>
+        <v>503523</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>494873</v>
+        <v>492845</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>247955</v>
+        <v>247599</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>275013</v>
+        <v>274712</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>262669</v>
+        <v>261963</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>228469</v>
+        <v>228719</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>264468</v>
+        <v>264031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>270381</v>
+        <v>271123</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>471727</v>
+        <v>470836</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>534346</v>
+        <v>534282</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>527288</v>
+        <v>524644</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>411205</v>
+        <v>410456</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>428338</v>
+        <v>427166</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>431857</v>
+        <v>433697</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>430880</v>
+        <v>429967</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>465570</v>
+        <v>465611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>467300</v>
+        <v>466715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>852481</v>
+        <v>850810</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>901390</v>
+        <v>903413</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>908177</v>
+        <v>909235</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>441170</v>
+        <v>440631</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>456364</v>
+        <v>456319</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>459387</v>
+        <v>461451</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>458717</v>
+        <v>459078</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>491416</v>
+        <v>491044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>492379</v>
+        <v>492173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>892350</v>
+        <v>892427</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>940696</v>
+        <v>941880</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>945303</v>
+        <v>946320</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>298450</v>
+        <v>298430</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>296037</v>
+        <v>295320</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>287529</v>
+        <v>287464</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>315832</v>
+        <v>315751</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>301983</v>
+        <v>302047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>308762</v>
+        <v>308520</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>620017</v>
+        <v>619205</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>603774</v>
+        <v>604761</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>604347</v>
+        <v>603806</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>313128</v>
+        <v>313038</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>313015</v>
+        <v>313193</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>304828</v>
+        <v>305918</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>329413</v>
+        <v>329373</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>322436</v>
+        <v>323191</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>326104</v>
+        <v>325585</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>639735</v>
+        <v>639270</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>632416</v>
+        <v>632061</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>628736</v>
+        <v>627032</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>306797</v>
+        <v>308126</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>324992</v>
+        <v>325893</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>320074</v>
+        <v>320385</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>333586</v>
+        <v>333030</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>370523</v>
+        <v>370228</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>352929</v>
+        <v>354121</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>649173</v>
+        <v>648870</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>700890</v>
+        <v>701888</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>681136</v>
+        <v>683130</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>331272</v>
+        <v>331451</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>350850</v>
+        <v>349717</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>344508</v>
+        <v>344410</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>352694</v>
+        <v>352488</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>383777</v>
+        <v>383926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>373250</v>
+        <v>372607</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>679622</v>
+        <v>679740</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>729894</v>
+        <v>730197</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>712725</v>
+        <v>711970</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>181083</v>
+        <v>182459</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>188363</v>
+        <v>187974</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>181884</v>
+        <v>180724</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>194518</v>
+        <v>193559</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>199296</v>
+        <v>199742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>191156</v>
+        <v>192233</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>380920</v>
+        <v>381390</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>394259</v>
+        <v>395144</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>378724</v>
+        <v>377955</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>194679</v>
+        <v>195425</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>205031</v>
+        <v>205156</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>198660</v>
+        <v>197573</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>204437</v>
+        <v>204555</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>213700</v>
+        <v>213559</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>207871</v>
+        <v>207784</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>397104</v>
+        <v>397694</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>415923</v>
+        <v>415889</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>400825</v>
+        <v>402140</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>250153</v>
+        <v>249081</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>235349</v>
+        <v>236478</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>213252</v>
+        <v>213315</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>250112</v>
+        <v>250603</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>255567</v>
+        <v>256919</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>238084</v>
+        <v>240319</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>505754</v>
+        <v>506682</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>500240</v>
+        <v>500902</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>459331</v>
+        <v>459756</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>263970</v>
+        <v>263788</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>257453</v>
+        <v>257652</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>235847</v>
+        <v>235238</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>266398</v>
+        <v>267206</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>271252</v>
+        <v>271374</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>257248</v>
+        <v>257487</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>526866</v>
+        <v>526960</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>524793</v>
+        <v>524503</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>488078</v>
+        <v>489678</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>560290</v>
+        <v>559368</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>580656</v>
+        <v>582174</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>594369</v>
+        <v>594758</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>582017</v>
+        <v>582724</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>628416</v>
+        <v>627723</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>648722</v>
+        <v>648292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1150400</v>
+        <v>1149951</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1220135</v>
+        <v>1220798</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1251227</v>
+        <v>1248805</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>584985</v>
+        <v>585758</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>613903</v>
+        <v>615071</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>621615</v>
+        <v>621300</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>606915</v>
+        <v>608446</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>657135</v>
+        <v>656899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>670285</v>
+        <v>669908</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1187275</v>
+        <v>1186627</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1264242</v>
+        <v>1265202</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1284939</v>
+        <v>1285593</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>661161</v>
+        <v>659694</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>712899</v>
+        <v>711999</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>707843</v>
+        <v>707822</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>683981</v>
+        <v>683868</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>766340</v>
+        <v>768087</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>763054</v>
+        <v>761675</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1352160</v>
+        <v>1353505</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1492067</v>
+        <v>1489911</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1482923</v>
+        <v>1477963</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>690476</v>
+        <v>690732</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>739905</v>
+        <v>740004</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>736705</v>
+        <v>736416</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>717159</v>
+        <v>718417</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>793113</v>
+        <v>793031</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>790406</v>
+        <v>789670</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1399075</v>
+        <v>1400709</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1528206</v>
+        <v>1527560</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1519292</v>
+        <v>1518971</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2955718</v>
+        <v>2953928</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3093917</v>
+        <v>3094257</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3043299</v>
+        <v>3046117</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3053232</v>
+        <v>3057779</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3293566</v>
+        <v>3294845</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3285003</v>
+        <v>3286105</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>6036409</v>
+        <v>6033682</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>6407329</v>
+        <v>6409338</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>6350069</v>
+        <v>6345672</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3023218</v>
+        <v>3020740</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3165063</v>
+        <v>3163305</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3113092</v>
+        <v>3113154</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3120480</v>
+        <v>3119946</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3353351</v>
+        <v>3353611</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3341909</v>
+        <v>3344853</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>6123908</v>
+        <v>6130367</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>6498640</v>
+        <v>6497113</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>6439832</v>
+        <v>6438943</v>
       </c>
     </row>
     <row r="40">
